--- a/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASRVIMBOP" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,89 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>AMRSIMBOP</t>
-  </si>
-  <si>
-    <t>Maintenance and Repair Services n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ATRPIMBOP</t>
-  </si>
-  <si>
-    <t>Transport,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ATRVIMBOP</t>
-  </si>
-  <si>
-    <t>Travel,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ACONIMBOP</t>
-  </si>
-  <si>
-    <t>Construction,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AINSIMBOP</t>
-  </si>
-  <si>
-    <t>Insurance Services,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AFINIMBOP</t>
-  </si>
-  <si>
-    <t>Financial Services,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ACUIIMBOP</t>
-  </si>
-  <si>
-    <t>Charges for the Use of Intellectual Property n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ATCIIMBOP</t>
-  </si>
-  <si>
-    <t>Telecommunications, Computer and Information Services,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AOTBIMBOP</t>
-  </si>
-  <si>
-    <t>Other Business Services,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>APCRIMBOP</t>
-  </si>
-  <si>
-    <t>Personal, Cultural and Recreational Services,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AGGSIMBOP</t>
-  </si>
-  <si>
-    <t>Government Goods and Services n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1999</v>
@@ -519,19 +438,27 @@
       <c r="W1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>3</v>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AMRSIMBOP</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1278</v>
@@ -599,19 +526,25 @@
       <c r="W2" t="n">
         <v>6090</v>
       </c>
-      <c r="X2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>5</v>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>AMRSIMBOP</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Maintenance and Repair Services n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z2" t="n">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ATRPIMBOP</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>49620</v>
@@ -679,19 +612,25 @@
       <c r="W3" t="n">
         <v>72411</v>
       </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>7</v>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ATRPIMBOP</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Transport,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z3" t="n">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ATRVIMBOP</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>59592</v>
@@ -759,19 +698,25 @@
       <c r="W4" t="n">
         <v>35808</v>
       </c>
-      <c r="X4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>9</v>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ATRVIMBOP</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Travel,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z4" t="n">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ACONIMBOP</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>1524</v>
@@ -839,19 +784,25 @@
       <c r="W5" t="n">
         <v>1131</v>
       </c>
-      <c r="X5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>11</v>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ACONIMBOP</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Construction,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z5" t="n">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AINSIMBOP</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>9389</v>
@@ -919,19 +870,25 @@
       <c r="W6" t="n">
         <v>55617</v>
       </c>
-      <c r="X6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>13</v>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>AINSIMBOP</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Insurance Services,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z6" t="n">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AFINIMBOP</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>8280</v>
@@ -999,19 +956,25 @@
       <c r="W7" t="n">
         <v>42256</v>
       </c>
-      <c r="X7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>15</v>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>AFINIMBOP</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Financial Services,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z7" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ACUIIMBOP</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>13302</v>
@@ -1079,19 +1042,25 @@
       <c r="W8" t="n">
         <v>42984</v>
       </c>
-      <c r="X8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>17</v>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ACUIIMBOP</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Charges for the Use of Intellectual Property n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z8" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ATCIIMBOP</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>13332</v>
@@ -1159,19 +1128,25 @@
       <c r="W9" t="n">
         <v>38594</v>
       </c>
-      <c r="X9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>19</v>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ATCIIMBOP</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Telecommunications, Computer and Information Services,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z9" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AOTBIMBOP</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>23887</v>
@@ -1239,19 +1214,25 @@
       <c r="W10" t="n">
         <v>117673</v>
       </c>
-      <c r="X10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>21</v>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>AOTBIMBOP</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Other Business Services,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z10" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>APCRIMBOP</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>1670</v>
@@ -1319,19 +1300,25 @@
       <c r="W11" t="n">
         <v>23185</v>
       </c>
-      <c r="X11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>23</v>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>APCRIMBOP</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Personal, Cultural and Recreational Services,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z11" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AGGSIMBOP</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>14212</v>
@@ -1399,11 +1386,15 @@
       <c r="W12" t="n">
         <v>24553</v>
       </c>
-      <c r="X12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>25</v>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>AGGSIMBOP</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Government Goods and Services n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="Z12" t="n">
         <v>191</v>

--- a/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +440,25 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>2021.0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2021.0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -526,17 +536,23 @@
       <c r="W2" t="n">
         <v>6090</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="n">
+        <v>7703</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7514</v>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>AMRSIMBOP</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Maintenance and Repair Services n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>181</v>
       </c>
     </row>
@@ -612,17 +628,23 @@
       <c r="W3" t="n">
         <v>72411</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" t="n">
+        <v>104553</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>104806</v>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>ATRPIMBOP</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Transport,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>182</v>
       </c>
     </row>
@@ -698,17 +720,23 @@
       <c r="W4" t="n">
         <v>35808</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" t="n">
+        <v>57766</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>57940</v>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>ATRVIMBOP</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Travel,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>183</v>
       </c>
     </row>
@@ -784,17 +812,23 @@
       <c r="W5" t="n">
         <v>1131</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="n">
+        <v>1275</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1262</v>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>ACONIMBOP</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>Construction,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>184</v>
       </c>
     </row>
@@ -870,17 +904,23 @@
       <c r="W6" t="n">
         <v>55617</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" t="n">
+        <v>56396</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>57658</v>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>AINSIMBOP</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>Insurance Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>185</v>
       </c>
     </row>
@@ -956,17 +996,23 @@
       <c r="W7" t="n">
         <v>42256</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" t="n">
+        <v>43833</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>44966</v>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>AFINIMBOP</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Financial Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>186</v>
       </c>
     </row>
@@ -1042,17 +1088,23 @@
       <c r="W8" t="n">
         <v>42984</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="n">
+        <v>44996</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>46849</v>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>ACUIIMBOP</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>Charges for the Use of Intellectual Property n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>187</v>
       </c>
     </row>
@@ -1128,17 +1180,23 @@
       <c r="W9" t="n">
         <v>38594</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" t="n">
+        <v>40300</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>41358</v>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>ATCIIMBOP</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>Telecommunications, Computer and Information Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>188</v>
       </c>
     </row>
@@ -1214,17 +1272,23 @@
       <c r="W10" t="n">
         <v>117673</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" t="n">
+        <v>125577</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>126780</v>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>AOTBIMBOP</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>Other Business Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>189</v>
       </c>
     </row>
@@ -1300,17 +1364,23 @@
       <c r="W11" t="n">
         <v>23185</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" t="n">
+        <v>27325</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>26952</v>
+      </c>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>APCRIMBOP</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>Personal, Cultural and Recreational Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>190</v>
       </c>
     </row>
@@ -1386,17 +1456,23 @@
       <c r="W12" t="n">
         <v>24553</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" t="n">
+        <v>25296</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>25160</v>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>AGGSIMBOP</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>Government Goods and Services n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
         <v>191</v>
       </c>
     </row>

--- a/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2021.0</t>
+          <t>2021.0.1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">

--- a/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/ASRVIMBOP_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,27 +438,20 @@
       <c r="W1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2021.0</t>
-        </is>
+      <c r="X1" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2021.0.1</t>
+          <t>Index</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Index</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -537,22 +530,19 @@
         <v>6090</v>
       </c>
       <c r="X2" t="n">
-        <v>7703</v>
-      </c>
-      <c r="Y2" t="n">
         <v>7514</v>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>AMRSIMBOP</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>AMRSIMBOP</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
           <t>Maintenance and Repair Services n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB2" t="n">
+      <c r="AA2" t="n">
         <v>181</v>
       </c>
     </row>
@@ -629,22 +619,19 @@
         <v>72411</v>
       </c>
       <c r="X3" t="n">
-        <v>104553</v>
-      </c>
-      <c r="Y3" t="n">
         <v>104806</v>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>ATRPIMBOP</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ATRPIMBOP</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
           <t>Transport,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB3" t="n">
+      <c r="AA3" t="n">
         <v>182</v>
       </c>
     </row>
@@ -721,22 +708,19 @@
         <v>35808</v>
       </c>
       <c r="X4" t="n">
-        <v>57766</v>
-      </c>
-      <c r="Y4" t="n">
         <v>57940</v>
       </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>ATRVIMBOP</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ATRVIMBOP</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
           <t>Travel,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB4" t="n">
+      <c r="AA4" t="n">
         <v>183</v>
       </c>
     </row>
@@ -813,22 +797,19 @@
         <v>1131</v>
       </c>
       <c r="X5" t="n">
-        <v>1275</v>
-      </c>
-      <c r="Y5" t="n">
         <v>1262</v>
       </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>ACONIMBOP</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ACONIMBOP</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
           <t>Construction,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB5" t="n">
+      <c r="AA5" t="n">
         <v>184</v>
       </c>
     </row>
@@ -905,22 +886,19 @@
         <v>55617</v>
       </c>
       <c r="X6" t="n">
-        <v>56396</v>
-      </c>
-      <c r="Y6" t="n">
         <v>57658</v>
       </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>AINSIMBOP</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>AINSIMBOP</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
           <t>Insurance Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB6" t="n">
+      <c r="AA6" t="n">
         <v>185</v>
       </c>
     </row>
@@ -997,22 +975,19 @@
         <v>42256</v>
       </c>
       <c r="X7" t="n">
-        <v>43833</v>
-      </c>
-      <c r="Y7" t="n">
         <v>44966</v>
       </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>AFINIMBOP</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>AFINIMBOP</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
           <t>Financial Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB7" t="n">
+      <c r="AA7" t="n">
         <v>186</v>
       </c>
     </row>
@@ -1089,22 +1064,19 @@
         <v>42984</v>
       </c>
       <c r="X8" t="n">
-        <v>44996</v>
-      </c>
-      <c r="Y8" t="n">
         <v>46849</v>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>ACUIIMBOP</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>ACUIIMBOP</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
           <t>Charges for the Use of Intellectual Property n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB8" t="n">
+      <c r="AA8" t="n">
         <v>187</v>
       </c>
     </row>
@@ -1181,22 +1153,19 @@
         <v>38594</v>
       </c>
       <c r="X9" t="n">
-        <v>40300</v>
-      </c>
-      <c r="Y9" t="n">
         <v>41358</v>
       </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>ATCIIMBOP</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ATCIIMBOP</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
           <t>Telecommunications, Computer and Information Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB9" t="n">
+      <c r="AA9" t="n">
         <v>188</v>
       </c>
     </row>
@@ -1273,22 +1242,19 @@
         <v>117673</v>
       </c>
       <c r="X10" t="n">
-        <v>125577</v>
-      </c>
-      <c r="Y10" t="n">
         <v>126780</v>
       </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>AOTBIMBOP</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>AOTBIMBOP</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
           <t>Other Business Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB10" t="n">
+      <c r="AA10" t="n">
         <v>189</v>
       </c>
     </row>
@@ -1365,22 +1331,19 @@
         <v>23185</v>
       </c>
       <c r="X11" t="n">
-        <v>27325</v>
-      </c>
-      <c r="Y11" t="n">
         <v>26952</v>
       </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>APCRIMBOP</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>APCRIMBOP</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
           <t>Personal, Cultural and Recreational Services,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB11" t="n">
+      <c r="AA11" t="n">
         <v>190</v>
       </c>
     </row>
@@ -1457,22 +1420,19 @@
         <v>24553</v>
       </c>
       <c r="X12" t="n">
-        <v>25296</v>
-      </c>
-      <c r="Y12" t="n">
         <v>25160</v>
       </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>AGGSIMBOP</t>
+        </is>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>AGGSIMBOP</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
           <t>Government Goods and Services n.i.e.,  Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="AB12" t="n">
+      <c r="AA12" t="n">
         <v>191</v>
       </c>
     </row>
